--- a/stock_historical_data/1wk/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1wk/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,117 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B9" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>351.7999877929688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="E9" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="F9" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5427858</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B10" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>342</v>
+      </c>
+      <c r="D10" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="E10" t="n">
+        <v>324.1499938964844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>324.1499938964844</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2186480</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1wk/BALUFORGE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -973,7 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1027,7 +1029,1829 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B11" t="n">
+        <v>327.533723638711</v>
+      </c>
+      <c r="C11" t="n">
+        <v>379.8231297099595</v>
+      </c>
+      <c r="D11" t="n">
+        <v>322.2847858576785</v>
+      </c>
+      <c r="E11" t="n">
+        <v>362.2266845703125</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>6301408</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>27</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B12" t="n">
+        <v>367.9255651749846</v>
+      </c>
+      <c r="C12" t="n">
+        <v>429.2131539085381</v>
+      </c>
+      <c r="D12" t="n">
+        <v>367.9255651749846</v>
+      </c>
+      <c r="E12" t="n">
+        <v>404.4181823730469</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>5584890</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B13" t="n">
+        <v>411.9166633274271</v>
+      </c>
+      <c r="C13" t="n">
+        <v>426.9136292252703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>382.4226303950021</v>
+      </c>
+      <c r="E13" t="n">
+        <v>397.4695739746094</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>3979301</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>29</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B14" t="n">
+        <v>392.9205000704567</v>
+      </c>
+      <c r="C14" t="n">
+        <v>449.9089695463245</v>
+      </c>
+      <c r="D14" t="n">
+        <v>372.9745235493411</v>
+      </c>
+      <c r="E14" t="n">
+        <v>446.9095764160156</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>5373252</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>30</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B15" t="n">
+        <v>456.9075621883752</v>
+      </c>
+      <c r="C15" t="n">
+        <v>533.8919873273355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>454.9579444121121</v>
+      </c>
+      <c r="E15" t="n">
+        <v>491.4505615234375</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>12251768</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>29</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B16" t="n">
+        <v>469.904939956611</v>
+      </c>
+      <c r="C16" t="n">
+        <v>595.8794557747664</v>
+      </c>
+      <c r="D16" t="n">
+        <v>459.9069625107257</v>
+      </c>
+      <c r="E16" t="n">
+        <v>578.6829223632812</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>9149544</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B17" t="n">
+        <v>571.8842968706455</v>
+      </c>
+      <c r="C17" t="n">
+        <v>598.8788353592948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>532.2923314964171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>572.5841674804688</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>3428354</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>33</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B18" t="n">
+        <v>574.8836958249919</v>
+      </c>
+      <c r="C18" t="n">
+        <v>777.7926577124795</v>
+      </c>
+      <c r="D18" t="n">
+        <v>564.5358137092663</v>
+      </c>
+      <c r="E18" t="n">
+        <v>774.1433715820312</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>8666649</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>34</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B19" t="n">
+        <v>794.8391618683947</v>
+      </c>
+      <c r="C19" t="n">
+        <v>849.5281076002534</v>
+      </c>
+      <c r="D19" t="n">
+        <v>724.8533237164605</v>
+      </c>
+      <c r="E19" t="n">
+        <v>750.4481201171875</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>7698446</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>35</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B20" t="n">
+        <v>754.2474081344765</v>
+      </c>
+      <c r="C20" t="n">
+        <v>798.6383893328348</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.8482738520875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>770.0941772460938</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2692548</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>36</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B21" t="n">
+        <v>771.0440107551766</v>
+      </c>
+      <c r="C21" t="n">
+        <v>866.3247208818823</v>
+      </c>
+      <c r="D21" t="n">
+        <v>769.8442412914592</v>
+      </c>
+      <c r="E21" t="n">
+        <v>802.1376953125</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>5984845</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B22" t="n">
+        <v>800.7880072806109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>800.8379849627505</v>
+      </c>
+      <c r="D22" t="n">
+        <v>720.9541216041583</v>
+      </c>
+      <c r="E22" t="n">
+        <v>729.8023681640625</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>3649357</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>38</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B23" t="n">
+        <v>739.7999877929688</v>
+      </c>
+      <c r="C23" t="n">
+        <v>886.9500122070312</v>
+      </c>
+      <c r="D23" t="n">
+        <v>731.75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>790.25</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>8412768</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B24" t="n">
+        <v>787.5499877929688</v>
+      </c>
+      <c r="C24" t="n">
+        <v>814.2000122070312</v>
+      </c>
+      <c r="D24" t="n">
+        <v>751.1500244140625</v>
+      </c>
+      <c r="E24" t="n">
+        <v>766.3499755859375</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1861115</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>40</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B25" t="n">
+        <v>772.2000122070312</v>
+      </c>
+      <c r="C25" t="n">
+        <v>786</v>
+      </c>
+      <c r="D25" t="n">
+        <v>686.8499755859375</v>
+      </c>
+      <c r="E25" t="n">
+        <v>765.3499755859375</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2440372</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>41</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B26" t="n">
+        <v>767</v>
+      </c>
+      <c r="C26" t="n">
+        <v>859</v>
+      </c>
+      <c r="D26" t="n">
+        <v>766</v>
+      </c>
+      <c r="E26" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>3780358</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>42</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B27" t="n">
+        <v>844</v>
+      </c>
+      <c r="C27" t="n">
+        <v>873.9000244140625</v>
+      </c>
+      <c r="D27" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>695.5999755859375</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>4438027</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>43</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B28" t="n">
+        <v>703.9000244140625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>774</v>
+      </c>
+      <c r="D28" t="n">
+        <v>697.4000244140625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>759.25</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1687268</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>44</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B29" t="n">
+        <v>757.7999877929688</v>
+      </c>
+      <c r="C29" t="n">
+        <v>821</v>
+      </c>
+      <c r="D29" t="n">
+        <v>718.9000244140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2529429</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>45</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B30" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="C30" t="n">
+        <v>789.0499877929688</v>
+      </c>
+      <c r="D30" t="n">
+        <v>711.2999877929688</v>
+      </c>
+      <c r="E30" t="n">
+        <v>750</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1531573</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>46</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B31" t="n">
+        <v>752</v>
+      </c>
+      <c r="C31" t="n">
+        <v>769</v>
+      </c>
+      <c r="D31" t="n">
+        <v>714</v>
+      </c>
+      <c r="E31" t="n">
+        <v>744.2999877929688</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1541441</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>18</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>47</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B32" t="n">
+        <v>748.0499877929688</v>
+      </c>
+      <c r="C32" t="n">
+        <v>763.8499755859375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>721</v>
+      </c>
+      <c r="E32" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>2387910</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>48</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B33" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>828</v>
+      </c>
+      <c r="D33" t="n">
+        <v>732.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>806.75</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>3473956</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>49</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B34" t="n">
+        <v>812</v>
+      </c>
+      <c r="C34" t="n">
+        <v>852.8499755859375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>783.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>799.25</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>4063915</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>50</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B35" t="n">
+        <v>797</v>
+      </c>
+      <c r="C35" t="n">
+        <v>867.7000122070312</v>
+      </c>
+      <c r="D35" t="n">
+        <v>755</v>
+      </c>
+      <c r="E35" t="n">
+        <v>771.9500122070312</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>3973604</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>16</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>51</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B36" t="n">
+        <v>775</v>
+      </c>
+      <c r="C36" t="n">
+        <v>798.7000122070312</v>
+      </c>
+      <c r="D36" t="n">
+        <v>740.25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1245570</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>52</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B37" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="C37" t="n">
+        <v>817.9000244140625</v>
+      </c>
+      <c r="D37" t="n">
+        <v>738.0999755859375</v>
+      </c>
+      <c r="E37" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1650235</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B38" t="n">
+        <v>783.75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>783.8499755859375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>691</v>
+      </c>
+      <c r="E38" t="n">
+        <v>702</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1450147</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B39" t="n">
+        <v>685.2000122070312</v>
+      </c>
+      <c r="C39" t="n">
+        <v>727.0999755859375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>631.5999755859375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>705.9500122070312</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1947920</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B40" t="n">
+        <v>709.5999755859375</v>
+      </c>
+      <c r="C40" t="n">
+        <v>716</v>
+      </c>
+      <c r="D40" t="n">
+        <v>621.7999877929688</v>
+      </c>
+      <c r="E40" t="n">
+        <v>625.6500244140625</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1965864</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B41" t="n">
+        <v>625.7000122070312</v>
+      </c>
+      <c r="C41" t="n">
+        <v>625.7000122070312</v>
+      </c>
+      <c r="D41" t="n">
+        <v>512.8499755859375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>607.9000244140625</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>4456031</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B42" t="n">
+        <v>609</v>
+      </c>
+      <c r="C42" t="n">
+        <v>668</v>
+      </c>
+      <c r="D42" t="n">
+        <v>591</v>
+      </c>
+      <c r="E42" t="n">
+        <v>653.6500244140625</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>5976640</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B43" t="n">
+        <v>671.2000122070312</v>
+      </c>
+      <c r="C43" t="n">
+        <v>679</v>
+      </c>
+      <c r="D43" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="E43" t="n">
+        <v>538.8499755859375</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>4181637</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B44" t="n">
+        <v>529</v>
+      </c>
+      <c r="C44" t="n">
+        <v>576.0999755859375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>467</v>
+      </c>
+      <c r="E44" t="n">
+        <v>533.7999877929688</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>4979880</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>17</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B45" t="n">
+        <v>524</v>
+      </c>
+      <c r="C45" t="n">
+        <v>537.9500122070312</v>
+      </c>
+      <c r="D45" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="E45" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2222983</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>24</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/1wk/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1083,7 +1083,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1135,7 +1137,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1187,7 +1191,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1239,7 +1245,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1291,7 +1299,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1343,7 +1353,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1395,7 +1407,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1447,7 +1461,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1499,7 +1515,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1551,7 +1569,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1603,7 +1623,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1655,7 +1677,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1707,7 +1731,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1759,7 +1785,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1811,7 +1839,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1863,7 +1893,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1915,7 +1947,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1967,7 +2001,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2019,7 +2055,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2071,7 +2109,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2123,7 +2163,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2175,7 +2217,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2227,7 +2271,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2279,7 +2325,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2331,7 +2379,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2383,7 +2433,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2435,7 +2487,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2487,7 +2541,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2539,7 +2595,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2591,7 +2649,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,7 +2703,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2695,7 +2757,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2747,7 +2811,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2799,7 +2865,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2851,7 +2919,477 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B46" t="n">
+        <v>486.5499877929688</v>
+      </c>
+      <c r="C46" t="n">
+        <v>514.4500122070312</v>
+      </c>
+      <c r="D46" t="n">
+        <v>428.3999938964844</v>
+      </c>
+      <c r="E46" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>4650152</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B47" t="n">
+        <v>499</v>
+      </c>
+      <c r="C47" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="D47" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="E47" t="n">
+        <v>445.9500122070312</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>2208462</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B48" t="n">
+        <v>448</v>
+      </c>
+      <c r="C48" t="n">
+        <v>602.5499877929688</v>
+      </c>
+      <c r="D48" t="n">
+        <v>433</v>
+      </c>
+      <c r="E48" t="n">
+        <v>601.75</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>7572002</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B49" t="n">
+        <v>632</v>
+      </c>
+      <c r="C49" t="n">
+        <v>673.7000122070312</v>
+      </c>
+      <c r="D49" t="n">
+        <v>602.1500244140625</v>
+      </c>
+      <c r="E49" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>8271875</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B50" t="n">
+        <v>639.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>677</v>
+      </c>
+      <c r="D50" t="n">
+        <v>598.75</v>
+      </c>
+      <c r="E50" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>4407725</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B51" t="n">
+        <v>547.5999755859375</v>
+      </c>
+      <c r="C51" t="n">
+        <v>644.6500244140625</v>
+      </c>
+      <c r="D51" t="n">
+        <v>547.5999755859375</v>
+      </c>
+      <c r="E51" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2964802</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>15</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B52" t="n">
+        <v>627.75</v>
+      </c>
+      <c r="C52" t="n">
+        <v>648</v>
+      </c>
+      <c r="D52" t="n">
+        <v>572.4000244140625</v>
+      </c>
+      <c r="E52" t="n">
+        <v>609.7000122070312</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3625027</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>16</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B53" t="n">
+        <v>615</v>
+      </c>
+      <c r="C53" t="n">
+        <v>624.4000244140625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>538</v>
+      </c>
+      <c r="E53" t="n">
+        <v>547.1500244140625</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>2654522</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>21</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>17</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B54" t="n">
+        <v>539.2000122070312</v>
+      </c>
+      <c r="C54" t="n">
+        <v>570</v>
+      </c>
+      <c r="D54" t="n">
+        <v>510</v>
+      </c>
+      <c r="E54" t="n">
+        <v>511.8999938964844</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1350401</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>28</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>18</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
